--- a/DGP1.xlsx
+++ b/DGP1.xlsx
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.909</v>
+        <v>0.917</v>
       </c>
       <c r="G2" t="n">
-        <v>0.932</v>
+        <v>0.938</v>
       </c>
     </row>
     <row r="3">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.929</v>
+        <v>0.926</v>
       </c>
       <c r="G3" t="n">
-        <v>0.947</v>
+        <v>0.9485</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.921</v>
+        <v>0.919</v>
       </c>
       <c r="G4" t="n">
-        <v>0.941</v>
+        <v>0.9365</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.892</v>
+        <v>0.8925</v>
       </c>
       <c r="G5" t="n">
-        <v>0.918</v>
+        <v>0.9255</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.896</v>
+        <v>0.895</v>
       </c>
       <c r="G6" t="n">
-        <v>0.918</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.892</v>
+        <v>0.894</v>
       </c>
       <c r="G7" t="n">
-        <v>0.91</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.89</v>
+        <v>0.8955</v>
       </c>
       <c r="G8" t="n">
-        <v>0.906</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.89</v>
+        <v>0.8935</v>
       </c>
       <c r="G9" t="n">
-        <v>0.914</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.882</v>
+        <v>0.894</v>
       </c>
       <c r="G10" t="n">
-        <v>0.908</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="11">
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.887</v>
+        <v>0.8855</v>
       </c>
       <c r="G11" t="n">
-        <v>0.923</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>26.789222337593</v>
+        <v>26.8294024276969</v>
       </c>
       <c r="G12" t="n">
-        <v>26.1854652698692</v>
+        <v>26.1457371438265</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9638502957665</v>
+        <v>27.1527024565181</v>
       </c>
       <c r="G13" t="n">
-        <v>26.7719216408788</v>
+        <v>26.6924358651114</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>26.948325911942</v>
+        <v>27.1240990369769</v>
       </c>
       <c r="G14" t="n">
-        <v>26.5823444853466</v>
+        <v>26.7622281298361</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>27.2455594890552</v>
+        <v>27.3295360153539</v>
       </c>
       <c r="G15" t="n">
-        <v>26.8345669473451</v>
+        <v>27.0405387112227</v>
       </c>
     </row>
     <row r="16">
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>27.3187123398715</v>
+        <v>27.307380066508</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9282755487079</v>
+        <v>27.0070237153875</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>27.2531651131207</v>
+        <v>27.1808230672551</v>
       </c>
       <c r="G17" t="n">
-        <v>26.9270481786873</v>
+        <v>27.0403790744726</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>27.4946971794901</v>
+        <v>27.5370344496458</v>
       </c>
       <c r="G18" t="n">
-        <v>26.7136663745152</v>
+        <v>26.9755331037809</v>
       </c>
     </row>
     <row r="19">
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>27.799667020195</v>
+        <v>27.7344116145732</v>
       </c>
       <c r="G19" t="n">
-        <v>27.341961112045</v>
+        <v>27.426032424097</v>
       </c>
     </row>
     <row r="20">
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>26.8595252111438</v>
+        <v>27.1760754859167</v>
       </c>
       <c r="G20" t="n">
-        <v>27.015510307322</v>
+        <v>27.0310694599212</v>
       </c>
     </row>
     <row r="21">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>27.5192950897469</v>
+        <v>27.6222218906449</v>
       </c>
       <c r="G21" t="n">
-        <v>27.5704700236242</v>
+        <v>27.4326038112742</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>45.6763206868387</v>
+        <v>45.5571264864953</v>
       </c>
       <c r="G22" t="n">
-        <v>32.3833428221278</v>
+        <v>31.893755169037</v>
       </c>
     </row>
     <row r="23">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>46.7504882027634</v>
+        <v>46.9670552811354</v>
       </c>
       <c r="G23" t="n">
-        <v>33.5224582075571</v>
+        <v>33.2753079586415</v>
       </c>
     </row>
     <row r="24">
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>47.5942041652907</v>
+        <v>51.9543313086606</v>
       </c>
       <c r="G24" t="n">
-        <v>32.9232850850006</v>
+        <v>35.8106065874162</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>55.8110637037373</v>
+        <v>58.1369225817017</v>
       </c>
       <c r="G25" t="n">
-        <v>41.3266466745901</v>
+        <v>41.2881751576832</v>
       </c>
     </row>
     <row r="26">
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>60.2800423723563</v>
+        <v>63.074968149898</v>
       </c>
       <c r="G26" t="n">
-        <v>41.3748003884214</v>
+        <v>43.8810890004287</v>
       </c>
     </row>
     <row r="27">
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>59.4167121458792</v>
+        <v>64.1857220341012</v>
       </c>
       <c r="G27" t="n">
-        <v>42.6265802793495</v>
+        <v>44.7758503974991</v>
       </c>
     </row>
     <row r="28">
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>65.7406201498305</v>
+        <v>67.6310688818376</v>
       </c>
       <c r="G28" t="n">
-        <v>47.7017813634946</v>
+        <v>48.3194892681868</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>63.4435236445313</v>
+        <v>67.3420597083802</v>
       </c>
       <c r="G29" t="n">
-        <v>44.9061302309157</v>
+        <v>46.8679768545625</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>60.6313710563984</v>
+        <v>64.7888621773835</v>
       </c>
       <c r="G30" t="n">
-        <v>43.8758295879011</v>
+        <v>46.4235475415528</v>
       </c>
     </row>
     <row r="31">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>60.8804733251999</v>
+        <v>66.5211629129843</v>
       </c>
       <c r="G31" t="n">
-        <v>42.4798766018667</v>
+        <v>47.2925673997698</v>
       </c>
     </row>
     <row r="32">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>4.0353834279046</v>
+        <v>4.05387427446472</v>
       </c>
       <c r="G32" t="n">
-        <v>3.2505770428373</v>
+        <v>3.23601607730262</v>
       </c>
     </row>
     <row r="33">
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>4.50705235069176</v>
+        <v>4.34148269920271</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35340761394544</v>
+        <v>3.29056236460741</v>
       </c>
     </row>
     <row r="34">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>4.33723348762291</v>
+        <v>4.36058023957176</v>
       </c>
       <c r="G34" t="n">
-        <v>3.33873011038416</v>
+        <v>3.28030984838484</v>
       </c>
     </row>
     <row r="35">
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>4.39674972195168</v>
+        <v>4.54361023157187</v>
       </c>
       <c r="G35" t="n">
-        <v>3.33599480745965</v>
+        <v>3.41092252784712</v>
       </c>
     </row>
     <row r="36">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>4.66184893698792</v>
+        <v>4.54212701110648</v>
       </c>
       <c r="G36" t="n">
-        <v>3.44100855996446</v>
+        <v>3.40411206678676</v>
       </c>
     </row>
     <row r="37">
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>4.54263769737504</v>
+        <v>4.58316917957522</v>
       </c>
       <c r="G37" t="n">
-        <v>3.58622466137821</v>
+        <v>3.46473032074425</v>
       </c>
     </row>
     <row r="38">
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>4.89724039746523</v>
+        <v>4.785072419594</v>
       </c>
       <c r="G38" t="n">
-        <v>3.58323022434087</v>
+        <v>3.53223765069957</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>4.64867503988799</v>
+        <v>4.64364023799313</v>
       </c>
       <c r="G39" t="n">
-        <v>3.58720755198256</v>
+        <v>3.42765742935832</v>
       </c>
     </row>
     <row r="40">
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>4.5534250957949</v>
+        <v>4.57704180556645</v>
       </c>
       <c r="G40" t="n">
-        <v>3.21704809009734</v>
+        <v>3.39627626450925</v>
       </c>
     </row>
     <row r="41">
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>4.52855605693184</v>
+        <v>4.57080503494929</v>
       </c>
       <c r="G41" t="n">
-        <v>3.57400052267134</v>
+        <v>3.5320974041048</v>
       </c>
     </row>
     <row r="42">
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.938</v>
+        <v>0.936</v>
       </c>
       <c r="G42" t="n">
-        <v>0.96</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="43">
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.923</v>
+        <v>0.9325</v>
       </c>
       <c r="G43" t="n">
-        <v>0.951</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="44">
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.932</v>
+        <v>0.926</v>
       </c>
       <c r="G44" t="n">
-        <v>0.96</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="45">
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.924</v>
+        <v>0.9185</v>
       </c>
       <c r="G45" t="n">
-        <v>0.957</v>
+        <v>0.9505</v>
       </c>
     </row>
     <row r="46">
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.931</v>
+        <v>0.924</v>
       </c>
       <c r="G46" t="n">
-        <v>0.958</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="47">
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.933</v>
+        <v>0.9265</v>
       </c>
       <c r="G47" t="n">
-        <v>0.962</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="48">
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.927</v>
+        <v>0.928</v>
       </c>
       <c r="G48" t="n">
-        <v>0.966</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="49">
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.919</v>
+        <v>0.929</v>
       </c>
       <c r="G49" t="n">
-        <v>0.95</v>
+        <v>0.9615</v>
       </c>
     </row>
     <row r="50">
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.936</v>
+        <v>0.9245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.955</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="51">
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.918</v>
+        <v>0.919</v>
       </c>
       <c r="G51" t="n">
-        <v>0.951</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="52">
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>26.3736923621384</v>
+        <v>26.3576650036124</v>
       </c>
       <c r="G52" t="n">
-        <v>24.5594929231463</v>
+        <v>24.8953300662101</v>
       </c>
     </row>
     <row r="53">
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>26.7444572244206</v>
+        <v>26.6078763649001</v>
       </c>
       <c r="G53" t="n">
-        <v>24.813038790558</v>
+        <v>25.2247161168541</v>
       </c>
     </row>
     <row r="54">
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>26.5466795270944</v>
+        <v>26.9072016701481</v>
       </c>
       <c r="G54" t="n">
-        <v>24.82995974214</v>
+        <v>25.2931381063498</v>
       </c>
     </row>
     <row r="55">
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>26.9056067775514</v>
+        <v>26.8778233820931</v>
       </c>
       <c r="G55" t="n">
-        <v>25.3522459015493</v>
+        <v>25.3991280205814</v>
       </c>
     </row>
     <row r="56">
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>26.5553483405063</v>
+        <v>26.7941957510559</v>
       </c>
       <c r="G56" t="n">
-        <v>25.3620951443669</v>
+        <v>25.2403574624153</v>
       </c>
     </row>
     <row r="57">
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>26.5914889402406</v>
+        <v>26.8309802556823</v>
       </c>
       <c r="G57" t="n">
-        <v>25.2071021381679</v>
+        <v>25.3351963496706</v>
       </c>
     </row>
     <row r="58">
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>26.5391171409272</v>
+        <v>26.7328950865301</v>
       </c>
       <c r="G58" t="n">
-        <v>25.4942435884057</v>
+        <v>25.2996848225713</v>
       </c>
     </row>
     <row r="59">
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>26.9590851730297</v>
+        <v>26.8145840201258</v>
       </c>
       <c r="G59" t="n">
-        <v>25.6222841682834</v>
+        <v>25.47184304822</v>
       </c>
     </row>
     <row r="60">
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>26.9329693325809</v>
+        <v>26.9261776715505</v>
       </c>
       <c r="G60" t="n">
-        <v>25.3346349791403</v>
+        <v>25.6820889275</v>
       </c>
     </row>
     <row r="61">
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>26.8045689544738</v>
+        <v>26.8202405836441</v>
       </c>
       <c r="G61" t="n">
-        <v>25.5752694255433</v>
+        <v>25.6377008918459</v>
       </c>
     </row>
     <row r="62">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>42.6749238336632</v>
+        <v>42.2421245415497</v>
       </c>
       <c r="G62" t="n">
-        <v>21.7584489505391</v>
+        <v>22.196891086215</v>
       </c>
     </row>
     <row r="63">
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>46.3453827569573</v>
+        <v>44.9263418615841</v>
       </c>
       <c r="G63" t="n">
-        <v>24.1839459208794</v>
+        <v>24.0056216799236</v>
       </c>
     </row>
     <row r="64">
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>47.9864925318854</v>
+        <v>50.8359018909907</v>
       </c>
       <c r="G64" t="n">
-        <v>25.9887386269957</v>
+        <v>26.9346461985113</v>
       </c>
     </row>
     <row r="65">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>46.6339102680056</v>
+        <v>50.6420577430001</v>
       </c>
       <c r="G65" t="n">
-        <v>25.2794573617688</v>
+        <v>27.7864039892904</v>
       </c>
     </row>
     <row r="66">
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>48.8129616382952</v>
+        <v>50.7852121056668</v>
       </c>
       <c r="G66" t="n">
-        <v>26.4336591303468</v>
+        <v>28.204188817369</v>
       </c>
     </row>
     <row r="67">
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>47.5094765579676</v>
+        <v>50.3950717450474</v>
       </c>
       <c r="G67" t="n">
-        <v>26.5441331374221</v>
+        <v>28.6817373078701</v>
       </c>
     </row>
     <row r="68">
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>45.9279761670346</v>
+        <v>49.5928697454675</v>
       </c>
       <c r="G68" t="n">
-        <v>25.9658673922015</v>
+        <v>29.5905136691045</v>
       </c>
     </row>
     <row r="69">
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>51.4246658903884</v>
+        <v>50.9014334433344</v>
       </c>
       <c r="G69" t="n">
-        <v>30.8454155624908</v>
+        <v>28.887414361834</v>
       </c>
     </row>
     <row r="70">
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>45.6554404665584</v>
+        <v>50.4127917819824</v>
       </c>
       <c r="G70" t="n">
-        <v>25.7052023999792</v>
+        <v>29.0900198771038</v>
       </c>
     </row>
     <row r="71">
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>52.7066580199406</v>
+        <v>50.4925428675493</v>
       </c>
       <c r="G71" t="n">
-        <v>29.0347581769703</v>
+        <v>29.0463419948035</v>
       </c>
     </row>
     <row r="72">
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>3.84104589777138</v>
+        <v>4.1945365815947</v>
       </c>
       <c r="G72" t="n">
-        <v>2.68152443235881</v>
+        <v>2.80994762290145</v>
       </c>
     </row>
     <row r="73">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>4.33276726607815</v>
+        <v>4.22768948950294</v>
       </c>
       <c r="G73" t="n">
-        <v>2.91399884857502</v>
+        <v>2.87857417689452</v>
       </c>
     </row>
     <row r="74">
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>4.53958658759379</v>
+        <v>4.43513569078136</v>
       </c>
       <c r="G74" t="n">
-        <v>2.92712960609354</v>
+        <v>2.90884087780605</v>
       </c>
     </row>
     <row r="75">
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>4.36355404485327</v>
+        <v>4.31223151094798</v>
       </c>
       <c r="G75" t="n">
-        <v>2.92911409924891</v>
+        <v>2.889688138508</v>
       </c>
     </row>
     <row r="76">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>4.44003921018327</v>
+        <v>4.40481776568814</v>
       </c>
       <c r="G76" t="n">
-        <v>2.68814657913813</v>
+        <v>2.96063067651358</v>
       </c>
     </row>
     <row r="77">
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>4.32952529474103</v>
+        <v>4.4572365499384</v>
       </c>
       <c r="G77" t="n">
-        <v>2.93741300792007</v>
+        <v>2.96154473261323</v>
       </c>
     </row>
     <row r="78">
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>4.23115101369776</v>
+        <v>4.28986061508433</v>
       </c>
       <c r="G78" t="n">
-        <v>2.84029123451944</v>
+        <v>3.03370140326161</v>
       </c>
     </row>
     <row r="79">
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>4.37906800423112</v>
+        <v>4.61599387881153</v>
       </c>
       <c r="G79" t="n">
-        <v>2.90406691775917</v>
+        <v>3.12724094664756</v>
       </c>
     </row>
     <row r="80">
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>4.21226465198371</v>
+        <v>4.43576145038117</v>
       </c>
       <c r="G80" t="n">
-        <v>2.76568615608468</v>
+        <v>3.07441844919693</v>
       </c>
     </row>
     <row r="81">
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>4.16417511427571</v>
+        <v>4.30974701531621</v>
       </c>
       <c r="G81" t="n">
-        <v>2.93331281684653</v>
+        <v>2.90765440226296</v>
       </c>
     </row>
     <row r="82">
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.921</v>
+        <v>0.926</v>
       </c>
       <c r="G82" t="n">
-        <v>0.945</v>
+        <v>0.943</v>
       </c>
     </row>
     <row r="83">
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.916</v>
+        <v>0.917</v>
       </c>
       <c r="G83" t="n">
-        <v>0.923</v>
+        <v>0.9325</v>
       </c>
     </row>
     <row r="84">
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.91</v>
+        <v>0.909</v>
       </c>
       <c r="G84" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="85">
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.897</v>
+        <v>0.9075</v>
       </c>
       <c r="G85" t="n">
-        <v>0.922</v>
+        <v>0.9305</v>
       </c>
     </row>
     <row r="86">
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.889</v>
+        <v>0.8985</v>
       </c>
       <c r="G86" t="n">
-        <v>0.914</v>
+        <v>0.9225</v>
       </c>
     </row>
     <row r="87">
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.902</v>
+        <v>0.9015</v>
       </c>
       <c r="G87" t="n">
-        <v>0.927</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="88">
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.911</v>
+        <v>0.9125</v>
       </c>
       <c r="G88" t="n">
-        <v>0.93</v>
+        <v>0.934</v>
       </c>
     </row>
     <row r="89">
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.916</v>
+        <v>0.909</v>
       </c>
       <c r="G89" t="n">
-        <v>0.937</v>
+        <v>0.9305</v>
       </c>
     </row>
     <row r="90">
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.907</v>
+        <v>0.908</v>
       </c>
       <c r="G90" t="n">
-        <v>0.935</v>
+        <v>0.9315</v>
       </c>
     </row>
     <row r="91">
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.899</v>
+        <v>0.9165</v>
       </c>
       <c r="G91" t="n">
-        <v>0.916</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="92">
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>26.3301886352103</v>
+        <v>26.540793987041</v>
       </c>
       <c r="G92" t="n">
-        <v>26.0577963844739</v>
+        <v>26.4729206178247</v>
       </c>
     </row>
     <row r="93">
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>26.5137869357008</v>
+        <v>26.8320572583618</v>
       </c>
       <c r="G93" t="n">
-        <v>26.6293100311972</v>
+        <v>26.8343418819628</v>
       </c>
     </row>
     <row r="94">
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>26.4870060096389</v>
+        <v>26.97927536559</v>
       </c>
       <c r="G94" t="n">
-        <v>26.6761595368155</v>
+        <v>27.0911020151194</v>
       </c>
     </row>
     <row r="95">
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>26.7869989078092</v>
+        <v>26.8201694190494</v>
       </c>
       <c r="G95" t="n">
-        <v>26.7647824765956</v>
+        <v>27.097299882687</v>
       </c>
     </row>
     <row r="96">
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>26.6040407432693</v>
+        <v>27.0535826532787</v>
       </c>
       <c r="G96" t="n">
-        <v>26.7424052590089</v>
+        <v>27.3108374084964</v>
       </c>
     </row>
     <row r="97">
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>27.0001056525541</v>
+        <v>27.173964234395</v>
       </c>
       <c r="G97" t="n">
-        <v>27.0156922793916</v>
+        <v>27.2794619541895</v>
       </c>
     </row>
     <row r="98">
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>26.7988787979551</v>
+        <v>27.1716202435844</v>
       </c>
       <c r="G98" t="n">
-        <v>26.8030704790426</v>
+        <v>27.388889742542</v>
       </c>
     </row>
     <row r="99">
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>26.7313654636589</v>
+        <v>27.2094468663257</v>
       </c>
       <c r="G99" t="n">
-        <v>26.8670696218304</v>
+        <v>27.4309163604294</v>
       </c>
     </row>
     <row r="100">
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>26.9982145161657</v>
+        <v>27.2303512576396</v>
       </c>
       <c r="G100" t="n">
-        <v>27.1984169683309</v>
+        <v>27.5110903789814</v>
       </c>
     </row>
     <row r="101">
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>27.1871973727173</v>
+        <v>27.2864487605812</v>
       </c>
       <c r="G101" t="n">
-        <v>27.37536817807</v>
+        <v>27.5007046743326</v>
       </c>
     </row>
     <row r="102">
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>41.2294876200908</v>
+        <v>41.7255457618463</v>
       </c>
       <c r="G102" t="n">
-        <v>27.7935022238525</v>
+        <v>29.7446099965572</v>
       </c>
     </row>
     <row r="103">
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>49.772308358979</v>
+        <v>45.6945816736133</v>
       </c>
       <c r="G103" t="n">
-        <v>35.1816491055615</v>
+        <v>33.4153736147515</v>
       </c>
     </row>
     <row r="104">
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>50.081065140678</v>
+        <v>49.2751124640068</v>
       </c>
       <c r="G104" t="n">
-        <v>35.4716405224922</v>
+        <v>36.1809418875943</v>
       </c>
     </row>
     <row r="105">
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>53.3908865817947</v>
+        <v>51.485302556561</v>
       </c>
       <c r="G105" t="n">
-        <v>39.104301029362</v>
+        <v>37.2846907462826</v>
       </c>
     </row>
     <row r="106">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>54.6617265556858</v>
+        <v>53.8832677307579</v>
       </c>
       <c r="G106" t="n">
-        <v>40.5056484813829</v>
+        <v>39.8563961493317</v>
       </c>
     </row>
     <row r="107">
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>53.3790641471348</v>
+        <v>53.3975353486759</v>
       </c>
       <c r="G107" t="n">
-        <v>38.0781726479962</v>
+        <v>39.3918466050791</v>
       </c>
     </row>
     <row r="108">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>47.3757362234641</v>
+        <v>51.0846530780398</v>
       </c>
       <c r="G108" t="n">
-        <v>34.0868391667781</v>
+        <v>37.3088912873044</v>
       </c>
     </row>
     <row r="109">
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>48.8891608916021</v>
+        <v>53.4203551854061</v>
       </c>
       <c r="G109" t="n">
-        <v>35.4075157116985</v>
+        <v>39.4341809956252</v>
       </c>
     </row>
     <row r="110">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>51.6226637712669</v>
+        <v>52.3064755553574</v>
       </c>
       <c r="G110" t="n">
-        <v>36.8502462356848</v>
+        <v>38.2460445582945</v>
       </c>
     </row>
     <row r="111">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>57.0260036432636</v>
+        <v>54.872103679674</v>
       </c>
       <c r="G111" t="n">
-        <v>41.5378383378204</v>
+        <v>41.0939571491017</v>
       </c>
     </row>
     <row r="112">
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>3.76179076205418</v>
+        <v>4.01399463791758</v>
       </c>
       <c r="G112" t="n">
-        <v>2.92550920114721</v>
+        <v>3.2107615531661</v>
       </c>
     </row>
     <row r="113">
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>4.50156522587909</v>
+        <v>4.29375316691924</v>
       </c>
       <c r="G113" t="n">
-        <v>3.3227638256727</v>
+        <v>3.34918760882637</v>
       </c>
     </row>
     <row r="114">
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>4.24698110497606</v>
+        <v>4.39730832764375</v>
       </c>
       <c r="G114" t="n">
-        <v>3.33759205689173</v>
+        <v>3.5362977560769</v>
       </c>
     </row>
     <row r="115">
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>4.41949943671815</v>
+        <v>4.38498883297199</v>
       </c>
       <c r="G115" t="n">
-        <v>3.50261203491771</v>
+        <v>3.44176652146308</v>
       </c>
     </row>
     <row r="116">
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>4.63297563574574</v>
+        <v>4.69088923426977</v>
       </c>
       <c r="G116" t="n">
-        <v>3.7235976418082</v>
+        <v>3.64954901582417</v>
       </c>
     </row>
     <row r="117">
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>4.31270533940003</v>
+        <v>4.31551617524392</v>
       </c>
       <c r="G117" t="n">
-        <v>3.46413542406906</v>
+        <v>3.48526225478462</v>
       </c>
     </row>
     <row r="118">
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>4.5584889728526</v>
+        <v>4.56950345837431</v>
       </c>
       <c r="G118" t="n">
-        <v>3.48617046053671</v>
+        <v>3.62789345751001</v>
       </c>
     </row>
     <row r="119">
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>4.44172673544569</v>
+        <v>4.57779848399297</v>
       </c>
       <c r="G119" t="n">
-        <v>3.48593836733773</v>
+        <v>3.6452209713939</v>
       </c>
     </row>
     <row r="120">
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>4.38282220204939</v>
+        <v>4.28884710117649</v>
       </c>
       <c r="G120" t="n">
-        <v>3.43562604847455</v>
+        <v>3.50208291987467</v>
       </c>
     </row>
     <row r="121">
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>4.45938280768385</v>
+        <v>4.38166770360034</v>
       </c>
       <c r="G121" t="n">
-        <v>3.46173535366455</v>
+        <v>3.41945132200992</v>
       </c>
     </row>
     <row r="122">
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.95</v>
+        <v>0.9395</v>
       </c>
       <c r="G122" t="n">
-        <v>0.967</v>
+        <v>0.9645</v>
       </c>
     </row>
     <row r="123">
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.946</v>
+        <v>0.9425</v>
       </c>
       <c r="G123" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="124">
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.946</v>
+        <v>0.931</v>
       </c>
       <c r="G124" t="n">
-        <v>0.968</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="125">
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.937</v>
+        <v>0.9225</v>
       </c>
       <c r="G125" t="n">
-        <v>0.965</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="126">
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.928</v>
+        <v>0.926</v>
       </c>
       <c r="G126" t="n">
-        <v>0.957</v>
+        <v>0.9515</v>
       </c>
     </row>
     <row r="127">
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.932</v>
+        <v>0.9245</v>
       </c>
       <c r="G127" t="n">
-        <v>0.957</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="128">
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.927</v>
+        <v>0.9265</v>
       </c>
       <c r="G128" t="n">
-        <v>0.956</v>
+        <v>0.9485</v>
       </c>
     </row>
     <row r="129">
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.93</v>
+        <v>0.9275</v>
       </c>
       <c r="G129" t="n">
-        <v>0.955</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="130">
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.929</v>
+        <v>0.9255</v>
       </c>
       <c r="G130" t="n">
-        <v>0.966</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="131">
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.932</v>
+        <v>0.9165</v>
       </c>
       <c r="G131" t="n">
-        <v>0.959</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="132">
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>26.0227084650515</v>
+        <v>25.9164107735204</v>
       </c>
       <c r="G132" t="n">
-        <v>24.5672566850827</v>
+        <v>24.564321044327</v>
       </c>
     </row>
     <row r="133">
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>26.049527445389</v>
+        <v>26.2338728641946</v>
       </c>
       <c r="G133" t="n">
-        <v>24.8357404788641</v>
+        <v>24.8190562208795</v>
       </c>
     </row>
     <row r="134">
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>25.9726675339897</v>
+        <v>26.1905857578149</v>
       </c>
       <c r="G134" t="n">
-        <v>24.8993247923793</v>
+        <v>25.0715203229544</v>
       </c>
     </row>
     <row r="135">
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>26.3192281219062</v>
+        <v>26.284376109387</v>
       </c>
       <c r="G135" t="n">
-        <v>25.1836206456582</v>
+        <v>25.1098761682144</v>
       </c>
     </row>
     <row r="136">
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>26.4155674659031</v>
+        <v>26.4577703764832</v>
       </c>
       <c r="G136" t="n">
-        <v>25.3118328662627</v>
+        <v>25.1100579904117</v>
       </c>
     </row>
     <row r="137">
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>26.5178752248457</v>
+        <v>26.225777380962</v>
       </c>
       <c r="G137" t="n">
-        <v>25.3706695366005</v>
+        <v>25.1015912212045</v>
       </c>
     </row>
     <row r="138">
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>26.7980985712684</v>
+        <v>26.2950239284017</v>
       </c>
       <c r="G138" t="n">
-        <v>25.7497328969423</v>
+        <v>25.3162080185583</v>
       </c>
     </row>
     <row r="139">
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>26.7316337351163</v>
+        <v>26.3914519272417</v>
       </c>
       <c r="G139" t="n">
-        <v>25.538317318681</v>
+        <v>25.2727157188299</v>
       </c>
     </row>
     <row r="140">
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>26.7692352778525</v>
+        <v>26.4698610144003</v>
       </c>
       <c r="G140" t="n">
-        <v>25.5510558163493</v>
+        <v>25.3845778312032</v>
       </c>
     </row>
     <row r="141">
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>26.9083045929716</v>
+        <v>26.3250268841118</v>
       </c>
       <c r="G141" t="n">
-        <v>25.6380077670334</v>
+        <v>25.3496493836765</v>
       </c>
     </row>
     <row r="142">
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>34.3007760043268</v>
+        <v>36.6394508639267</v>
       </c>
       <c r="G142" t="n">
-        <v>20.5439106072169</v>
+        <v>21.1409952241153</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>35.3566625024924</v>
+        <v>43.2982395713182</v>
       </c>
       <c r="G143" t="n">
-        <v>21.2874897099053</v>
+        <v>25.3908180059578</v>
       </c>
     </row>
     <row r="144">
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>38.4746854674849</v>
+        <v>44.2104953876571</v>
       </c>
       <c r="G144" t="n">
-        <v>22.1647563688261</v>
+        <v>26.3387971908615</v>
       </c>
     </row>
     <row r="145">
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>38.9406642815952</v>
+        <v>48.2344673258698</v>
       </c>
       <c r="G145" t="n">
-        <v>23.2491283091646</v>
+        <v>28.8197238475952</v>
       </c>
     </row>
     <row r="146">
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>46.0296198714205</v>
+        <v>47.8379708521132</v>
       </c>
       <c r="G146" t="n">
-        <v>27.7727873930479</v>
+        <v>29.1658222905517</v>
       </c>
     </row>
     <row r="147">
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>47.8075788136855</v>
+        <v>49.7322864650666</v>
       </c>
       <c r="G147" t="n">
-        <v>28.5909697896012</v>
+        <v>30.5942155393687</v>
       </c>
     </row>
     <row r="148">
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>45.3941309544198</v>
+        <v>49.9136628847138</v>
       </c>
       <c r="G148" t="n">
-        <v>27.2958792755556</v>
+        <v>30.9609572186747</v>
       </c>
     </row>
     <row r="149">
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>45.833801171669</v>
+        <v>48.7922992959582</v>
       </c>
       <c r="G149" t="n">
-        <v>27.5735505390168</v>
+        <v>29.1007059767292</v>
       </c>
     </row>
     <row r="150">
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>46.1138505297761</v>
+        <v>46.869216198862</v>
       </c>
       <c r="G150" t="n">
-        <v>26.4770989629728</v>
+        <v>28.3634316647001</v>
       </c>
     </row>
     <row r="151">
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>48.7220481188662</v>
+        <v>50.3863452407764</v>
       </c>
       <c r="G151" t="n">
-        <v>29.8535068403703</v>
+        <v>30.6073552293873</v>
       </c>
     </row>
     <row r="152">
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>3.80676223573487</v>
+        <v>3.87477382474284</v>
       </c>
       <c r="G152" t="n">
-        <v>2.68031178501807</v>
+        <v>2.69416104735777</v>
       </c>
     </row>
     <row r="153">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>4.02894917646724</v>
+        <v>4.22821682157893</v>
       </c>
       <c r="G153" t="n">
-        <v>2.87252043376534</v>
+        <v>3.00896828620631</v>
       </c>
     </row>
     <row r="154">
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>4.03072225983522</v>
+        <v>4.08257469546112</v>
       </c>
       <c r="G154" t="n">
-        <v>2.87270807956653</v>
+        <v>2.90070383019124</v>
       </c>
     </row>
     <row r="155">
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>4.11427146704396</v>
+        <v>4.27983596388527</v>
       </c>
       <c r="G155" t="n">
-        <v>2.90381711175304</v>
+        <v>3.0275932240956</v>
       </c>
     </row>
     <row r="156">
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>4.23573804675745</v>
+        <v>4.29452203544598</v>
       </c>
       <c r="G156" t="n">
-        <v>2.95170201312749</v>
+        <v>2.94150838957803</v>
       </c>
     </row>
     <row r="157">
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>4.38308251434314</v>
+        <v>4.6028509793493</v>
       </c>
       <c r="G157" t="n">
-        <v>3.1328222668331</v>
+        <v>3.03159627720828</v>
       </c>
     </row>
     <row r="158">
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>4.31398485672946</v>
+        <v>4.26901464601144</v>
       </c>
       <c r="G158" t="n">
-        <v>3.03208542301351</v>
+        <v>2.93684249900284</v>
       </c>
     </row>
     <row r="159">
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>4.42297187444515</v>
+        <v>4.22802081083271</v>
       </c>
       <c r="G159" t="n">
-        <v>3.11485057581082</v>
+        <v>2.94792768073411</v>
       </c>
     </row>
     <row r="160">
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.29366663060139</v>
+        <v>4.34307359953741</v>
       </c>
       <c r="G160" t="n">
-        <v>2.79784037711918</v>
+        <v>3.04251002508039</v>
       </c>
     </row>
     <row r="161">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>4.36297069047438</v>
+        <v>4.4952250844294</v>
       </c>
       <c r="G161" t="n">
-        <v>3.02910351626392</v>
+        <v>3.00551159962675</v>
       </c>
     </row>
   </sheetData>

--- a/DGP1.xlsx
+++ b/DGP1.xlsx
@@ -377,7 +377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/DGP1.xlsx
+++ b/DGP1.xlsx
@@ -407,10 +407,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.917</v>
+        <v>0.924</v>
       </c>
       <c r="G2" t="n">
-        <v>0.938</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.926</v>
+        <v>0.921</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9485</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="4">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.919</v>
+        <v>0.909</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9365</v>
+        <v>0.934</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8925</v>
+        <v>0.913</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9255</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.895</v>
+        <v>0.9035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9235</v>
+        <v>0.932</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.894</v>
+        <v>0.914</v>
       </c>
       <c r="G7" t="n">
-        <v>0.918</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="8">
@@ -545,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8955</v>
+        <v>0.9045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.917</v>
+        <v>0.932</v>
       </c>
     </row>
     <row r="9">
@@ -568,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8935</v>
+        <v>0.906</v>
       </c>
       <c r="G9" t="n">
-        <v>0.918</v>
+        <v>0.934</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.894</v>
+        <v>0.908</v>
       </c>
       <c r="G10" t="n">
-        <v>0.912</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="11">
@@ -614,10 +614,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8855</v>
+        <v>0.9045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9175</v>
+        <v>0.9355</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>26.8294024276969</v>
+        <v>26.1940157530881</v>
       </c>
       <c r="G12" t="n">
-        <v>26.1457371438265</v>
+        <v>25.1852846244473</v>
       </c>
     </row>
     <row r="13">
@@ -660,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>27.1527024565181</v>
+        <v>26.6369499737683</v>
       </c>
       <c r="G13" t="n">
-        <v>26.6924358651114</v>
+        <v>25.8299119662799</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>27.1240990369769</v>
+        <v>26.7629601895205</v>
       </c>
       <c r="G14" t="n">
-        <v>26.7622281298361</v>
+        <v>25.6788409550812</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>27.3295360153539</v>
+        <v>26.8292229592848</v>
       </c>
       <c r="G15" t="n">
-        <v>27.0405387112227</v>
+        <v>25.9495926398396</v>
       </c>
     </row>
     <row r="16">
@@ -729,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>27.307380066508</v>
+        <v>27.0874142958893</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0070237153875</v>
+        <v>26.0558138539428</v>
       </c>
     </row>
     <row r="17">
@@ -752,10 +752,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>27.1808230672551</v>
+        <v>27.2196820584013</v>
       </c>
       <c r="G17" t="n">
-        <v>27.0403790744726</v>
+        <v>26.1387190910234</v>
       </c>
     </row>
     <row r="18">
@@ -775,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>27.5370344496458</v>
+        <v>27.1720154865148</v>
       </c>
       <c r="G18" t="n">
-        <v>26.9755331037809</v>
+        <v>25.9746365824672</v>
       </c>
     </row>
     <row r="19">
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>27.7344116145732</v>
+        <v>26.9949494146178</v>
       </c>
       <c r="G19" t="n">
-        <v>27.426032424097</v>
+        <v>26.0586756541619</v>
       </c>
     </row>
     <row r="20">
@@ -821,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
         <v>9</v>
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>27.1760754859167</v>
+        <v>26.9470362490342</v>
       </c>
       <c r="G20" t="n">
-        <v>27.0310694599212</v>
+        <v>26.2983113319255</v>
       </c>
     </row>
     <row r="21">
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>27.6222218906449</v>
+        <v>27.2485493632101</v>
       </c>
       <c r="G21" t="n">
-        <v>27.4326038112742</v>
+        <v>26.1903543356602</v>
       </c>
     </row>
     <row r="22">
@@ -867,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>45.5571264864953</v>
+        <v>43.4266509277908</v>
       </c>
       <c r="G22" t="n">
-        <v>31.893755169037</v>
+        <v>26.9258099483442</v>
       </c>
     </row>
     <row r="23">
@@ -890,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>46.9670552811354</v>
+        <v>46.3249504593867</v>
       </c>
       <c r="G23" t="n">
-        <v>33.2753079586415</v>
+        <v>28.0112504037012</v>
       </c>
     </row>
     <row r="24">
@@ -913,10 +913,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>51.9543313086606</v>
+        <v>52.4252167792156</v>
       </c>
       <c r="G24" t="n">
-        <v>35.8106065874162</v>
+        <v>33.3118456868775</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>58.1369225817017</v>
+        <v>49.8987029614257</v>
       </c>
       <c r="G25" t="n">
-        <v>41.2881751576832</v>
+        <v>30.9603336777908</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>63.074968149898</v>
+        <v>54.1634662367562</v>
       </c>
       <c r="G26" t="n">
-        <v>43.8810890004287</v>
+        <v>34.005652437963</v>
       </c>
     </row>
     <row r="27">
@@ -982,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>64.1857220341012</v>
+        <v>52.2066927932275</v>
       </c>
       <c r="G27" t="n">
-        <v>44.7758503974991</v>
+        <v>32.6254543837414</v>
       </c>
     </row>
     <row r="28">
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>67.6310688818376</v>
+        <v>55.5300138770688</v>
       </c>
       <c r="G28" t="n">
-        <v>48.3194892681868</v>
+        <v>33.9068053350605</v>
       </c>
     </row>
     <row r="29">
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>67.3420597083802</v>
+        <v>54.2138412216862</v>
       </c>
       <c r="G29" t="n">
-        <v>46.8679768545625</v>
+        <v>32.7587668868878</v>
       </c>
     </row>
     <row r="30">
@@ -1051,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>64.7888621773835</v>
+        <v>56.2590076149058</v>
       </c>
       <c r="G30" t="n">
-        <v>46.4235475415528</v>
+        <v>34.2405161625148</v>
       </c>
     </row>
     <row r="31">
@@ -1074,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5211629129843</v>
+        <v>53.1812374091161</v>
       </c>
       <c r="G31" t="n">
-        <v>47.2925673997698</v>
+        <v>32.4518451677996</v>
       </c>
     </row>
     <row r="32">
@@ -1097,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>4.05387427446472</v>
+        <v>4.17967832607645</v>
       </c>
       <c r="G32" t="n">
-        <v>3.23601607730262</v>
+        <v>2.9842839616403</v>
       </c>
     </row>
     <row r="33">
@@ -1120,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>4.34148269920271</v>
+        <v>4.3009281542692</v>
       </c>
       <c r="G33" t="n">
-        <v>3.29056236460741</v>
+        <v>3.07777009923202</v>
       </c>
     </row>
     <row r="34">
@@ -1143,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>4.36058023957176</v>
+        <v>4.37668453928741</v>
       </c>
       <c r="G34" t="n">
-        <v>3.28030984838484</v>
+        <v>3.18153648817486</v>
       </c>
     </row>
     <row r="35">
@@ -1166,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>4.54361023157187</v>
+        <v>4.29553758065298</v>
       </c>
       <c r="G35" t="n">
-        <v>3.41092252784712</v>
+        <v>3.15149593820307</v>
       </c>
     </row>
     <row r="36">
@@ -1189,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>4.54212701110648</v>
+        <v>4.30050955144907</v>
       </c>
       <c r="G36" t="n">
-        <v>3.40411206678676</v>
+        <v>3.24909538796587</v>
       </c>
     </row>
     <row r="37">
@@ -1212,10 +1212,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>4.58316917957522</v>
+        <v>4.36077260667662</v>
       </c>
       <c r="G37" t="n">
-        <v>3.46473032074425</v>
+        <v>3.10565983959416</v>
       </c>
     </row>
     <row r="38">
@@ -1235,10 +1235,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
         <v>7</v>
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>4.785072419594</v>
+        <v>4.47378944154012</v>
       </c>
       <c r="G38" t="n">
-        <v>3.53223765069957</v>
+        <v>3.16652128565977</v>
       </c>
     </row>
     <row r="39">
@@ -1258,10 +1258,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>4.64364023799313</v>
+        <v>4.30832241645295</v>
       </c>
       <c r="G39" t="n">
-        <v>3.42765742935832</v>
+        <v>3.03193915988605</v>
       </c>
     </row>
     <row r="40">
@@ -1281,10 +1281,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
         <v>9</v>
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>4.57704180556645</v>
+        <v>4.52416323103599</v>
       </c>
       <c r="G40" t="n">
-        <v>3.39627626450925</v>
+        <v>3.16296590186766</v>
       </c>
     </row>
     <row r="41">
@@ -1304,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>4.57080503494929</v>
+        <v>4.50184805169848</v>
       </c>
       <c r="G41" t="n">
-        <v>3.5320974041048</v>
+        <v>3.22448762132649</v>
       </c>
     </row>
     <row r="42">
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
         <v>70</v>
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.936</v>
+        <v>0.9355</v>
       </c>
       <c r="G42" t="n">
-        <v>0.966</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="43">
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
         <v>70</v>
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9325</v>
+        <v>0.925</v>
       </c>
       <c r="G43" t="n">
-        <v>0.965</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="44">
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C44" t="n">
         <v>70</v>
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.926</v>
+        <v>0.922</v>
       </c>
       <c r="G44" t="n">
-        <v>0.956</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="45">
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
         <v>70</v>
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9185</v>
+        <v>0.926</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9505</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="46">
@@ -1419,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C46" t="n">
         <v>70</v>
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.924</v>
+        <v>0.9225</v>
       </c>
       <c r="G46" t="n">
-        <v>0.951</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="47">
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
         <v>70</v>
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9265</v>
+        <v>0.9275</v>
       </c>
       <c r="G47" t="n">
-        <v>0.961</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="48">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
         <v>70</v>
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.928</v>
+        <v>0.923</v>
       </c>
       <c r="G48" t="n">
-        <v>0.958</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="49">
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
         <v>70</v>
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.929</v>
+        <v>0.921</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9615</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="50">
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
         <v>70</v>
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9245</v>
+        <v>0.93</v>
       </c>
       <c r="G50" t="n">
-        <v>0.959</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="51">
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
         <v>70</v>
@@ -1546,7 +1546,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.919</v>
+        <v>0.9215</v>
       </c>
       <c r="G51" t="n">
         <v>0.954</v>
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
         <v>70</v>
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>26.3576650036124</v>
+        <v>26.037310644954</v>
       </c>
       <c r="G52" t="n">
-        <v>24.8953300662101</v>
+        <v>24.3041359590048</v>
       </c>
     </row>
     <row r="53">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
         <v>70</v>
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>26.6078763649001</v>
+        <v>26.4485743770781</v>
       </c>
       <c r="G53" t="n">
-        <v>25.2247161168541</v>
+        <v>24.7411060528457</v>
       </c>
     </row>
     <row r="54">
@@ -1603,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" t="n">
         <v>70</v>
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>26.9072016701481</v>
+        <v>26.5212606174195</v>
       </c>
       <c r="G54" t="n">
-        <v>25.2931381063498</v>
+        <v>24.7134937337623</v>
       </c>
     </row>
     <row r="55">
@@ -1626,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C55" t="n">
         <v>70</v>
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>26.8778233820931</v>
+        <v>26.585922508874</v>
       </c>
       <c r="G55" t="n">
-        <v>25.3991280205814</v>
+        <v>24.8160780741513</v>
       </c>
     </row>
     <row r="56">
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
         <v>70</v>
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>26.7941957510559</v>
+        <v>26.5963499412197</v>
       </c>
       <c r="G56" t="n">
-        <v>25.2403574624153</v>
+        <v>24.8787820693898</v>
       </c>
     </row>
     <row r="57">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
         <v>70</v>
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>26.8309802556823</v>
+        <v>26.6723360900852</v>
       </c>
       <c r="G57" t="n">
-        <v>25.3351963496706</v>
+        <v>24.935726488436</v>
       </c>
     </row>
     <row r="58">
@@ -1695,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" t="n">
         <v>70</v>
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>26.7328950865301</v>
+        <v>26.5372426046786</v>
       </c>
       <c r="G58" t="n">
-        <v>25.2996848225713</v>
+        <v>24.8223479230458</v>
       </c>
     </row>
     <row r="59">
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
         <v>70</v>
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>26.8145840201258</v>
+        <v>26.4710385295796</v>
       </c>
       <c r="G59" t="n">
-        <v>25.47184304822</v>
+        <v>24.9373296402363</v>
       </c>
     </row>
     <row r="60">
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
         <v>70</v>
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>26.9261776715505</v>
+        <v>26.7279629872244</v>
       </c>
       <c r="G60" t="n">
-        <v>25.6820889275</v>
+        <v>24.9426738450407</v>
       </c>
     </row>
     <row r="61">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
         <v>70</v>
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>26.8202405836441</v>
+        <v>26.4774409245063</v>
       </c>
       <c r="G61" t="n">
-        <v>25.6377008918459</v>
+        <v>24.8634353435059</v>
       </c>
     </row>
     <row r="62">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
         <v>70</v>
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>42.2421245415497</v>
+        <v>41.1041406750426</v>
       </c>
       <c r="G62" t="n">
-        <v>22.196891086215</v>
+        <v>20.861161068133</v>
       </c>
     </row>
     <row r="63">
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C63" t="n">
         <v>70</v>
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>44.9263418615841</v>
+        <v>45.6512402364248</v>
       </c>
       <c r="G63" t="n">
-        <v>24.0056216799236</v>
+        <v>24.2867565919013</v>
       </c>
     </row>
     <row r="64">
@@ -1833,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>70</v>
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>50.8359018909907</v>
+        <v>48.4730227473428</v>
       </c>
       <c r="G64" t="n">
-        <v>26.9346461985113</v>
+        <v>25.8963889576926</v>
       </c>
     </row>
     <row r="65">
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
         <v>70</v>
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>50.6420577430001</v>
+        <v>49.0068843868304</v>
       </c>
       <c r="G65" t="n">
-        <v>27.7864039892904</v>
+        <v>26.3188668540653</v>
       </c>
     </row>
     <row r="66">
@@ -1879,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="n">
         <v>70</v>
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>50.7852121056668</v>
+        <v>50.3770580259499</v>
       </c>
       <c r="G66" t="n">
-        <v>28.204188817369</v>
+        <v>27.6730294945646</v>
       </c>
     </row>
     <row r="67">
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
         <v>70</v>
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>50.3950717450474</v>
+        <v>48.0077568786797</v>
       </c>
       <c r="G67" t="n">
-        <v>28.6817373078701</v>
+        <v>25.9441293921017</v>
       </c>
     </row>
     <row r="68">
@@ -1925,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C68" t="n">
         <v>70</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>49.5928697454675</v>
+        <v>47.788598349306</v>
       </c>
       <c r="G68" t="n">
-        <v>29.5905136691045</v>
+        <v>25.0161022585593</v>
       </c>
     </row>
     <row r="69">
@@ -1948,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
         <v>70</v>
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>50.9014334433344</v>
+        <v>49.4842921179112</v>
       </c>
       <c r="G69" t="n">
-        <v>28.887414361834</v>
+        <v>26.8009491197772</v>
       </c>
     </row>
     <row r="70">
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
         <v>70</v>
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>50.4127917819824</v>
+        <v>49.8982614853087</v>
       </c>
       <c r="G70" t="n">
-        <v>29.0900198771038</v>
+        <v>27.7298798294532</v>
       </c>
     </row>
     <row r="71">
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
         <v>70</v>
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>50.4925428675493</v>
+        <v>47.6278098367713</v>
       </c>
       <c r="G71" t="n">
-        <v>29.0463419948035</v>
+        <v>25.5705627148747</v>
       </c>
     </row>
     <row r="72">
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
         <v>70</v>
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>4.1945365815947</v>
+        <v>4.18739330134529</v>
       </c>
       <c r="G72" t="n">
-        <v>2.80994762290145</v>
+        <v>2.69892162150086</v>
       </c>
     </row>
     <row r="73">
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
         <v>70</v>
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>4.22768948950294</v>
+        <v>4.32620042545954</v>
       </c>
       <c r="G73" t="n">
-        <v>2.87857417689452</v>
+        <v>2.7348135301679</v>
       </c>
     </row>
     <row r="74">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
         <v>70</v>
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>4.43513569078136</v>
+        <v>4.42721173017698</v>
       </c>
       <c r="G74" t="n">
-        <v>2.90884087780605</v>
+        <v>2.93071555478595</v>
       </c>
     </row>
     <row r="75">
@@ -2086,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
         <v>70</v>
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>4.31223151094798</v>
+        <v>4.32316278202012</v>
       </c>
       <c r="G75" t="n">
-        <v>2.889688138508</v>
+        <v>2.81002277215216</v>
       </c>
     </row>
     <row r="76">
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C76" t="n">
         <v>70</v>
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>4.40481776568814</v>
+        <v>4.39481333173866</v>
       </c>
       <c r="G76" t="n">
-        <v>2.96063067651358</v>
+        <v>2.8474172368561</v>
       </c>
     </row>
     <row r="77">
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C77" t="n">
         <v>70</v>
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>4.4572365499384</v>
+        <v>4.29377957332186</v>
       </c>
       <c r="G77" t="n">
-        <v>2.96154473261323</v>
+        <v>2.86803757963383</v>
       </c>
     </row>
     <row r="78">
@@ -2155,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C78" t="n">
         <v>70</v>
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>4.28986061508433</v>
+        <v>4.51439415836418</v>
       </c>
       <c r="G78" t="n">
-        <v>3.03370140326161</v>
+        <v>2.903561243945</v>
       </c>
     </row>
     <row r="79">
@@ -2178,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
         <v>70</v>
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>4.61599387881153</v>
+        <v>4.51666901262863</v>
       </c>
       <c r="G79" t="n">
-        <v>3.12724094664756</v>
+        <v>2.84087062035492</v>
       </c>
     </row>
     <row r="80">
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
         <v>70</v>
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>4.43576145038117</v>
+        <v>4.43801411041697</v>
       </c>
       <c r="G80" t="n">
-        <v>3.07441844919693</v>
+        <v>2.92108357153712</v>
       </c>
     </row>
     <row r="81">
@@ -2224,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
         <v>70</v>
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>4.30974701531621</v>
+        <v>4.11258587230376</v>
       </c>
       <c r="G81" t="n">
-        <v>2.90765440226296</v>
+        <v>2.83212542005696</v>
       </c>
     </row>
     <row r="82">
@@ -2247,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="B82" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.926</v>
+        <v>0.934</v>
       </c>
       <c r="G82" t="n">
-        <v>0.943</v>
+        <v>0.9515</v>
       </c>
     </row>
     <row r="83">
@@ -2270,10 +2270,10 @@
         <v>7</v>
       </c>
       <c r="B83" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.917</v>
+        <v>0.921</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9325</v>
+        <v>0.943</v>
       </c>
     </row>
     <row r="84">
@@ -2293,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="B84" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.909</v>
+        <v>0.9275</v>
       </c>
       <c r="G84" t="n">
-        <v>0.928</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="85">
@@ -2316,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="B85" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9075</v>
+        <v>0.919</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9305</v>
+        <v>0.9465</v>
       </c>
     </row>
     <row r="86">
@@ -2339,10 +2339,10 @@
         <v>7</v>
       </c>
       <c r="B86" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D86" t="n">
         <v>5</v>
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8985</v>
+        <v>0.9185</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9225</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="87">
@@ -2362,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="B87" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9015</v>
+        <v>0.918</v>
       </c>
       <c r="G87" t="n">
-        <v>0.926</v>
+        <v>0.936</v>
       </c>
     </row>
     <row r="88">
@@ -2385,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="B88" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9125</v>
+        <v>0.9145</v>
       </c>
       <c r="G88" t="n">
-        <v>0.934</v>
+        <v>0.9365</v>
       </c>
     </row>
     <row r="89">
@@ -2408,10 +2408,10 @@
         <v>7</v>
       </c>
       <c r="B89" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D89" t="n">
         <v>8</v>
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.909</v>
+        <v>0.913</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9305</v>
+        <v>0.939</v>
       </c>
     </row>
     <row r="90">
@@ -2431,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="B90" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D90" t="n">
         <v>9</v>
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.908</v>
+        <v>0.911</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9315</v>
+        <v>0.938</v>
       </c>
     </row>
     <row r="91">
@@ -2454,10 +2454,10 @@
         <v>7</v>
       </c>
       <c r="B91" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9165</v>
+        <v>0.9075</v>
       </c>
       <c r="G91" t="n">
-        <v>0.929</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="92">
@@ -2477,10 +2477,10 @@
         <v>7</v>
       </c>
       <c r="B92" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>26.540793987041</v>
+        <v>26.4965292469613</v>
       </c>
       <c r="G92" t="n">
-        <v>26.4729206178247</v>
+        <v>25.6270382684</v>
       </c>
     </row>
     <row r="93">
@@ -2500,10 +2500,10 @@
         <v>7</v>
       </c>
       <c r="B93" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>26.8320572583618</v>
+        <v>26.9673034879472</v>
       </c>
       <c r="G93" t="n">
-        <v>26.8343418819628</v>
+        <v>26.1287030515572</v>
       </c>
     </row>
     <row r="94">
@@ -2523,10 +2523,10 @@
         <v>7</v>
       </c>
       <c r="B94" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>26.97927536559</v>
+        <v>27.1736737399423</v>
       </c>
       <c r="G94" t="n">
-        <v>27.0911020151194</v>
+        <v>26.3390330290493</v>
       </c>
     </row>
     <row r="95">
@@ -2546,10 +2546,10 @@
         <v>7</v>
       </c>
       <c r="B95" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D95" t="n">
         <v>4</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>26.8201694190494</v>
+        <v>27.0472086499966</v>
       </c>
       <c r="G95" t="n">
-        <v>27.097299882687</v>
+        <v>26.3323895573127</v>
       </c>
     </row>
     <row r="96">
@@ -2569,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="B96" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>27.0535826532787</v>
+        <v>27.0484062716141</v>
       </c>
       <c r="G96" t="n">
-        <v>27.3108374084964</v>
+        <v>26.2201828227646</v>
       </c>
     </row>
     <row r="97">
@@ -2592,10 +2592,10 @@
         <v>7</v>
       </c>
       <c r="B97" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>27.173964234395</v>
+        <v>27.3914563215116</v>
       </c>
       <c r="G97" t="n">
-        <v>27.2794619541895</v>
+        <v>26.6839172913674</v>
       </c>
     </row>
     <row r="98">
@@ -2615,10 +2615,10 @@
         <v>7</v>
       </c>
       <c r="B98" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C98" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>27.1716202435844</v>
+        <v>27.4448825429618</v>
       </c>
       <c r="G98" t="n">
-        <v>27.388889742542</v>
+        <v>26.7835994136914</v>
       </c>
     </row>
     <row r="99">
@@ -2638,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="B99" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D99" t="n">
         <v>8</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>27.2094468663257</v>
+        <v>27.4315592195557</v>
       </c>
       <c r="G99" t="n">
-        <v>27.4309163604294</v>
+        <v>26.7911139098354</v>
       </c>
     </row>
     <row r="100">
@@ -2661,10 +2661,10 @@
         <v>7</v>
       </c>
       <c r="B100" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C100" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D100" t="n">
         <v>9</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>27.2303512576396</v>
+        <v>27.2829809160448</v>
       </c>
       <c r="G100" t="n">
-        <v>27.5110903789814</v>
+        <v>26.8872465927231</v>
       </c>
     </row>
     <row r="101">
@@ -2684,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>27.2864487605812</v>
+        <v>27.4398733199418</v>
       </c>
       <c r="G101" t="n">
-        <v>27.5007046743326</v>
+        <v>26.8605068811987</v>
       </c>
     </row>
     <row r="102">
@@ -2707,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="B102" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>41.7255457618463</v>
+        <v>44.0749509422011</v>
       </c>
       <c r="G102" t="n">
-        <v>29.7446099965572</v>
+        <v>28.025293515561</v>
       </c>
     </row>
     <row r="103">
@@ -2730,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="B103" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>45.6945816736133</v>
+        <v>48.8827551806123</v>
       </c>
       <c r="G103" t="n">
-        <v>33.4153736147515</v>
+        <v>29.9088414493879</v>
       </c>
     </row>
     <row r="104">
@@ -2753,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="B104" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C104" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D104" t="n">
         <v>3</v>
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>49.2751124640068</v>
+        <v>47.5445890078348</v>
       </c>
       <c r="G104" t="n">
-        <v>36.1809418875943</v>
+        <v>30.4935044141266</v>
       </c>
     </row>
     <row r="105">
@@ -2776,10 +2776,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C105" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>51.485302556561</v>
+        <v>48.3899833008631</v>
       </c>
       <c r="G105" t="n">
-        <v>37.2846907462826</v>
+        <v>30.3793614090297</v>
       </c>
     </row>
     <row r="106">
@@ -2799,10 +2799,10 @@
         <v>7</v>
       </c>
       <c r="B106" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>53.8832677307579</v>
+        <v>47.9863551130379</v>
       </c>
       <c r="G106" t="n">
-        <v>39.8563961493317</v>
+        <v>31.2802514325221</v>
       </c>
     </row>
     <row r="107">
@@ -2822,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="B107" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>53.3975353486759</v>
+        <v>53.1786742443847</v>
       </c>
       <c r="G107" t="n">
-        <v>39.3918466050791</v>
+        <v>33.1728989818072</v>
       </c>
     </row>
     <row r="108">
@@ -2845,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="B108" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D108" t="n">
         <v>7</v>
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>51.0846530780398</v>
+        <v>52.2900463841062</v>
       </c>
       <c r="G108" t="n">
-        <v>37.3088912873044</v>
+        <v>32.8913451700089</v>
       </c>
     </row>
     <row r="109">
@@ -2868,10 +2868,10 @@
         <v>7</v>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D109" t="n">
         <v>8</v>
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>53.4203551854061</v>
+        <v>55.0976265853216</v>
       </c>
       <c r="G109" t="n">
-        <v>39.4341809956252</v>
+        <v>35.13340305031</v>
       </c>
     </row>
     <row r="110">
@@ -2891,10 +2891,10 @@
         <v>7</v>
       </c>
       <c r="B110" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C110" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D110" t="n">
         <v>9</v>
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>52.3064755553574</v>
+        <v>55.4768075973453</v>
       </c>
       <c r="G110" t="n">
-        <v>38.2460445582945</v>
+        <v>36.3018669866221</v>
       </c>
     </row>
     <row r="111">
@@ -2914,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="B111" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>54.872103679674</v>
+        <v>55.1132469385894</v>
       </c>
       <c r="G111" t="n">
-        <v>41.0939571491017</v>
+        <v>34.8447747549186</v>
       </c>
     </row>
     <row r="112">
@@ -2937,10 +2937,10 @@
         <v>7</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>4.01399463791758</v>
+        <v>4.21445124919321</v>
       </c>
       <c r="G112" t="n">
-        <v>3.2107615531661</v>
+        <v>2.97993876243322</v>
       </c>
     </row>
     <row r="113">
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="B113" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C113" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>4.29375316691924</v>
+        <v>4.39405270048931</v>
       </c>
       <c r="G113" t="n">
-        <v>3.34918760882637</v>
+        <v>3.17532959978565</v>
       </c>
     </row>
     <row r="114">
@@ -2983,10 +2983,10 @@
         <v>7</v>
       </c>
       <c r="B114" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C114" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D114" t="n">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>4.39730832764375</v>
+        <v>4.48836498260424</v>
       </c>
       <c r="G114" t="n">
-        <v>3.5362977560769</v>
+        <v>3.30121288964622</v>
       </c>
     </row>
     <row r="115">
@@ -3006,10 +3006,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C115" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>4.38498883297199</v>
+        <v>4.1791040053927</v>
       </c>
       <c r="G115" t="n">
-        <v>3.44176652146308</v>
+        <v>3.09519973553133</v>
       </c>
     </row>
     <row r="116">
@@ -3029,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="B116" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>4.69088923426977</v>
+        <v>4.34085083794251</v>
       </c>
       <c r="G116" t="n">
-        <v>3.64954901582417</v>
+        <v>3.14707365178762</v>
       </c>
     </row>
     <row r="117">
@@ -3052,10 +3052,10 @@
         <v>7</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D117" t="n">
         <v>6</v>
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>4.31551617524392</v>
+        <v>4.36695608578091</v>
       </c>
       <c r="G117" t="n">
-        <v>3.48526225478462</v>
+        <v>3.2556876553403</v>
       </c>
     </row>
     <row r="118">
@@ -3075,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="B118" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C118" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D118" t="n">
         <v>7</v>
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>4.56950345837431</v>
+        <v>4.39550683360797</v>
       </c>
       <c r="G118" t="n">
-        <v>3.62789345751001</v>
+        <v>3.24149485715369</v>
       </c>
     </row>
     <row r="119">
@@ -3098,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="B119" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>4.57779848399297</v>
+        <v>4.39081447066796</v>
       </c>
       <c r="G119" t="n">
-        <v>3.6452209713939</v>
+        <v>3.23731569390448</v>
       </c>
     </row>
     <row r="120">
@@ -3121,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="B120" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D120" t="n">
         <v>9</v>
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>4.28884710117649</v>
+        <v>4.59306131238222</v>
       </c>
       <c r="G120" t="n">
-        <v>3.50208291987467</v>
+        <v>3.38371407888272</v>
       </c>
     </row>
     <row r="121">
@@ -3144,10 +3144,10 @@
         <v>7</v>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C121" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>4.38166770360034</v>
+        <v>4.52837531416156</v>
       </c>
       <c r="G121" t="n">
-        <v>3.41945132200992</v>
+        <v>3.25295759943468</v>
       </c>
     </row>
     <row r="122">
@@ -3167,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C122" t="n">
         <v>70</v>
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9395</v>
+        <v>0.9365</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9645</v>
+        <v>0.9605</v>
       </c>
     </row>
     <row r="123">
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C123" t="n">
         <v>70</v>
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9425</v>
+        <v>0.9335</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9625</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="124">
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C124" t="n">
         <v>70</v>
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.931</v>
+        <v>0.924</v>
       </c>
       <c r="G124" t="n">
-        <v>0.953</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="125">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C125" t="n">
         <v>70</v>
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9225</v>
+        <v>0.931</v>
       </c>
       <c r="G125" t="n">
-        <v>0.954</v>
+        <v>0.9585</v>
       </c>
     </row>
     <row r="126">
@@ -3259,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="B126" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C126" t="n">
         <v>70</v>
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.926</v>
+        <v>0.918</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9515</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="127">
@@ -3282,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C127" t="n">
         <v>70</v>
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9245</v>
+        <v>0.926</v>
       </c>
       <c r="G127" t="n">
-        <v>0.952</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="128">
@@ -3305,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C128" t="n">
         <v>70</v>
@@ -3317,7 +3317,7 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9265</v>
+        <v>0.9235</v>
       </c>
       <c r="G128" t="n">
         <v>0.9485</v>
@@ -3328,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C129" t="n">
         <v>70</v>
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9275</v>
+        <v>0.9195</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9535</v>
+        <v>0.9525</v>
       </c>
     </row>
     <row r="130">
@@ -3351,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="B130" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C130" t="n">
         <v>70</v>
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9255</v>
+        <v>0.9205</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9535</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="131">
@@ -3374,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="B131" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C131" t="n">
         <v>70</v>
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9165</v>
+        <v>0.923</v>
       </c>
       <c r="G131" t="n">
-        <v>0.949</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="132">
@@ -3397,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="B132" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C132" t="n">
         <v>70</v>
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>25.9164107735204</v>
+        <v>26.3589099255229</v>
       </c>
       <c r="G132" t="n">
-        <v>24.564321044327</v>
+        <v>24.5260639458698</v>
       </c>
     </row>
     <row r="133">
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="B133" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C133" t="n">
         <v>70</v>
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>26.2338728641946</v>
+        <v>26.4154540089293</v>
       </c>
       <c r="G133" t="n">
-        <v>24.8190562208795</v>
+        <v>24.9214162541388</v>
       </c>
     </row>
     <row r="134">
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="B134" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C134" t="n">
         <v>70</v>
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>26.1905857578149</v>
+        <v>26.5058385506486</v>
       </c>
       <c r="G134" t="n">
-        <v>25.0715203229544</v>
+        <v>24.9794769181305</v>
       </c>
     </row>
     <row r="135">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C135" t="n">
         <v>70</v>
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>26.284376109387</v>
+        <v>26.6596733171239</v>
       </c>
       <c r="G135" t="n">
-        <v>25.1098761682144</v>
+        <v>25.0214574848867</v>
       </c>
     </row>
     <row r="136">
@@ -3489,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C136" t="n">
         <v>70</v>
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>26.4577703764832</v>
+        <v>26.8256479609024</v>
       </c>
       <c r="G136" t="n">
-        <v>25.1100579904117</v>
+        <v>25.2869669152265</v>
       </c>
     </row>
     <row r="137">
@@ -3512,7 +3512,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C137" t="n">
         <v>70</v>
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>26.225777380962</v>
+        <v>26.8806741060981</v>
       </c>
       <c r="G137" t="n">
-        <v>25.1015912212045</v>
+        <v>25.4581531132562</v>
       </c>
     </row>
     <row r="138">
@@ -3535,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C138" t="n">
         <v>70</v>
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>26.2950239284017</v>
+        <v>27.0213494125102</v>
       </c>
       <c r="G138" t="n">
-        <v>25.3162080185583</v>
+        <v>25.2373509360054</v>
       </c>
     </row>
     <row r="139">
@@ -3558,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="B139" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C139" t="n">
         <v>70</v>
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>26.3914519272417</v>
+        <v>27.0315593278924</v>
       </c>
       <c r="G139" t="n">
-        <v>25.2727157188299</v>
+        <v>25.3549106242938</v>
       </c>
     </row>
     <row r="140">
@@ -3581,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C140" t="n">
         <v>70</v>
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>26.4698610144003</v>
+        <v>26.892026481965</v>
       </c>
       <c r="G140" t="n">
-        <v>25.3845778312032</v>
+        <v>25.5548971215053</v>
       </c>
     </row>
     <row r="141">
@@ -3604,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="B141" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C141" t="n">
         <v>70</v>
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>26.3250268841118</v>
+        <v>27.0086543940998</v>
       </c>
       <c r="G141" t="n">
-        <v>25.3496493836765</v>
+        <v>25.4076685162929</v>
       </c>
     </row>
     <row r="142">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="B142" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C142" t="n">
         <v>70</v>
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>36.6394508639267</v>
+        <v>41.0844678613085</v>
       </c>
       <c r="G142" t="n">
-        <v>21.1409952241153</v>
+        <v>22.9056886985919</v>
       </c>
     </row>
     <row r="143">
@@ -3650,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="B143" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C143" t="n">
         <v>70</v>
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>43.2982395713182</v>
+        <v>42.1323765965737</v>
       </c>
       <c r="G143" t="n">
-        <v>25.3908180059578</v>
+        <v>23.5454943430097</v>
       </c>
     </row>
     <row r="144">
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C144" t="n">
         <v>70</v>
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>44.2104953876571</v>
+        <v>45.7845607186177</v>
       </c>
       <c r="G144" t="n">
-        <v>26.3387971908615</v>
+        <v>26.3909707087202</v>
       </c>
     </row>
     <row r="145">
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="B145" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C145" t="n">
         <v>70</v>
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>48.2344673258698</v>
+        <v>47.0686922131378</v>
       </c>
       <c r="G145" t="n">
-        <v>28.8197238475952</v>
+        <v>26.3374041229438</v>
       </c>
     </row>
     <row r="146">
@@ -3719,7 +3719,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C146" t="n">
         <v>70</v>
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>47.8379708521132</v>
+        <v>49.57362553703</v>
       </c>
       <c r="G146" t="n">
-        <v>29.1658222905517</v>
+        <v>28.5090017951634</v>
       </c>
     </row>
     <row r="147">
@@ -3742,7 +3742,7 @@
         <v>7</v>
       </c>
       <c r="B147" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
         <v>70</v>
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>49.7322864650666</v>
+        <v>49.1641704283752</v>
       </c>
       <c r="G147" t="n">
-        <v>30.5942155393687</v>
+        <v>27.8008743368866</v>
       </c>
     </row>
     <row r="148">
@@ -3765,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C148" t="n">
         <v>70</v>
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>49.9136628847138</v>
+        <v>51.9491303793769</v>
       </c>
       <c r="G148" t="n">
-        <v>30.9609572186747</v>
+        <v>29.7651026325915</v>
       </c>
     </row>
     <row r="149">
@@ -3788,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C149" t="n">
         <v>70</v>
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>48.7922992959582</v>
+        <v>53.7210102917303</v>
       </c>
       <c r="G149" t="n">
-        <v>29.1007059767292</v>
+        <v>30.3994760777219</v>
       </c>
     </row>
     <row r="150">
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="B150" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C150" t="n">
         <v>70</v>
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>46.869216198862</v>
+        <v>53.1561853697394</v>
       </c>
       <c r="G150" t="n">
-        <v>28.3634316647001</v>
+        <v>31.0430253518246</v>
       </c>
     </row>
     <row r="151">
@@ -3834,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C151" t="n">
         <v>70</v>
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>50.3863452407764</v>
+        <v>49.1102883622986</v>
       </c>
       <c r="G151" t="n">
-        <v>30.6073552293873</v>
+        <v>28.9351181310014</v>
       </c>
     </row>
     <row r="152">
@@ -3857,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="B152" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C152" t="n">
         <v>70</v>
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>3.87477382474284</v>
+        <v>4.07022302593993</v>
       </c>
       <c r="G152" t="n">
-        <v>2.69416104735777</v>
+        <v>2.80158623678891</v>
       </c>
     </row>
     <row r="153">
@@ -3880,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="B153" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C153" t="n">
         <v>70</v>
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>4.22821682157893</v>
+        <v>4.16149842979268</v>
       </c>
       <c r="G153" t="n">
-        <v>3.00896828620631</v>
+        <v>2.73306772134482</v>
       </c>
     </row>
     <row r="154">
@@ -3903,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="B154" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C154" t="n">
         <v>70</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>4.08257469546112</v>
+        <v>4.33049482824006</v>
       </c>
       <c r="G154" t="n">
-        <v>2.90070383019124</v>
+        <v>2.75156754592373</v>
       </c>
     </row>
     <row r="155">
@@ -3926,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="B155" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C155" t="n">
         <v>70</v>
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>4.27983596388527</v>
+        <v>4.27061413659661</v>
       </c>
       <c r="G155" t="n">
-        <v>3.0275932240956</v>
+        <v>2.89326084051452</v>
       </c>
     </row>
     <row r="156">
@@ -3949,7 +3949,7 @@
         <v>7</v>
       </c>
       <c r="B156" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C156" t="n">
         <v>70</v>
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>4.29452203544598</v>
+        <v>4.43474247723171</v>
       </c>
       <c r="G156" t="n">
-        <v>2.94150838957803</v>
+        <v>2.93530331480839</v>
       </c>
     </row>
     <row r="157">
@@ -3972,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="B157" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C157" t="n">
         <v>70</v>
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>4.6028509793493</v>
+        <v>4.37102921051114</v>
       </c>
       <c r="G157" t="n">
-        <v>3.03159627720828</v>
+        <v>3.0093617957061</v>
       </c>
     </row>
     <row r="158">
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="B158" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C158" t="n">
         <v>70</v>
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>4.26901464601144</v>
+        <v>4.24069760320013</v>
       </c>
       <c r="G158" t="n">
-        <v>2.93684249900284</v>
+        <v>2.87151183698333</v>
       </c>
     </row>
     <row r="159">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="B159" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C159" t="n">
         <v>70</v>
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>4.22802081083271</v>
+        <v>4.37708505717298</v>
       </c>
       <c r="G159" t="n">
-        <v>2.94792768073411</v>
+        <v>2.95588113962027</v>
       </c>
     </row>
     <row r="160">
@@ -4041,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B160" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C160" t="n">
         <v>70</v>
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.34307359953741</v>
+        <v>4.43360225710909</v>
       </c>
       <c r="G160" t="n">
-        <v>3.04251002508039</v>
+        <v>2.95013597764488</v>
       </c>
     </row>
     <row r="161">
@@ -4064,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="B161" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C161" t="n">
         <v>70</v>
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>4.4952250844294</v>
+        <v>4.21437810474994</v>
       </c>
       <c r="G161" t="n">
-        <v>3.00551159962675</v>
+        <v>2.92525020293413</v>
       </c>
     </row>
   </sheetData>
